--- a/data/trans_dic/IP1011-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP1011-Habitat-trans_dic.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -647,7 +647,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,89</t>
+          <t>0; 5,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>0; 6,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0; 6,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,69</t>
+          <t>0; 6,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>0; 7,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0; 7,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,14</t>
+          <t>0; 3,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0; 3,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0; 3,48</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,24 +852,24 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,31%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,34%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,32%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,35%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
@@ -882,17 +882,17 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,0; 1,89</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,6</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 0,58</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>0,0; 1,69</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,63</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,5</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,7</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>0; 0,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>0; 0,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,84</t>
+          <t>0,0; 1,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,82</t>
+          <t>0; 0,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,03</t>
+          <t>0; 0,29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>0; 0,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>0; 0,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>0; 0,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>0; 0,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>0,0; 2,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>0; 0,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>0; 0,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>0,0; 1,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>0; 0,38</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,17 +1072,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1102,17 +1102,17 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,17%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>0,0; 1,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>0,0; 1,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>0,0; 1,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>0; 0,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,14</t>
+          <t>0; 0,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>0; 0,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,0; 0,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>0,0; 0,82</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>0,0; 1,03</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,38</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP1011-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP1011-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -795,12 +795,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,15</t>
+          <t>0,0; 2,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,96</t>
+          <t>0,0; 2,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,63</t>
+          <t>0,0; 2,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,78</t>
+          <t>0,0; 3,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,74</t>
+          <t>0,0; 1,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,85</t>
+          <t>0,0; 1,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -920,7 +920,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,69</t>
+          <t>0,0; 1,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,14</t>
+          <t>0,0; 2,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1125,17 +1125,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,69</t>
+          <t>0,0; 1,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,63</t>
+          <t>0,0; 1,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,5</t>
+          <t>0,0; 1,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1160,12 +1160,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,82</t>
+          <t>0,0; 0,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,03</t>
+          <t>0,0; 0,87</t>
         </is>
       </c>
     </row>
@@ -1235,27 +1235,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,81</t>
+          <t>0,08; 0,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,62</t>
+          <t>0,0; 0,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,53</t>
+          <t>0,0; 0,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,64</t>
+          <t>0,0; 0,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,62</t>
+          <t>0,0; 0,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1265,17 +1265,24 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,55</t>
+          <t>0,05; 0,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,47</t>
+          <t>0,05; 0,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
           <t>0,0; 0,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP1011-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP1011-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,12 +795,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,72</t>
+          <t>0,0; 2,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,45</t>
+          <t>0,0; 2,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,6</t>
+          <t>0,0; 3,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,36</t>
+          <t>0,0; 3,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,81</t>
+          <t>0,0; 2,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,89</t>
+          <t>0,0; 1,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,53</t>
+          <t>0,0; 2,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,03</t>
+          <t>0,0; 1,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1125,17 +1125,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,95</t>
+          <t>0,0; 1,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,87</t>
+          <t>0,0; 1,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,73</t>
+          <t>0,0; 2,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1160,12 +1160,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,99</t>
+          <t>0,0; 0,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,87</t>
+          <t>0,0; 0,86</t>
         </is>
       </c>
     </row>
@@ -1235,27 +1235,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,08; 0,82</t>
+          <t>0,08; 0,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,61</t>
+          <t>0,0; 0,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,58</t>
+          <t>0,0; 0,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,69</t>
+          <t>0,0; 0,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,71</t>
+          <t>0,0; 0,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,52</t>
+          <t>0,09; 0,55</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,05; 0,46</t>
+          <t>0,05; 0,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">

--- a/data/trans_dic/IP1011-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP1011-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,12 +632,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -647,12 +647,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -662,12 +662,12 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>0,0; 2,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>0,0; 2,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>0; 1,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>0,0; 2,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>0,0; 2,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>0; 0,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>0,0; 1,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>0,0; 1,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>0; 0,5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,12 +742,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -772,12 +772,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,4</t>
+          <t>0,0; 1,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,26</t>
+          <t>0; 0,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,16</t>
+          <t>0; 0,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,11</t>
+          <t>0,0; 1,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,67</t>
+          <t>0; 0,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,17</t>
+          <t>0; 0,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,5</t>
+          <t>0,0; 1,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,06</t>
+          <t>0; 0,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0; 0,29</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,12 +852,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,58</t>
+          <t>0; 0,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>0,0; 2,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0; 0,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,7</t>
+          <t>0; 0,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>0; 0,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0; 0,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,14</t>
+          <t>0; 0,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,0; 1,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>0; 0,38</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -977,32 +977,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,17%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>0; 0,7</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>0; 0,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>0; 0,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>0,0; 1,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,14</t>
+          <t>0,0; 1,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>0,0; 1,5</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0,0; 0,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,05</t>
+          <t>0,0; 0,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,0; 1,03</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,05%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,69</t>
+          <t>0,0; 0,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,75</t>
+          <t>0,0; 0,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,04</t>
+          <t>0; 0,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>0,08; 0,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>0,0; 0,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>0,0; 0,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,84</t>
+          <t>0,09; 0,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,65</t>
+          <t>0,05; 0,47</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,86</t>
+          <t>0,0; 0,25</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,27%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,18%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,1%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,19%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,2%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,23%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,19%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,05%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 0,71</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,63</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,38</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,66</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,68</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,18</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0,09; 0,55</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 0,44</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,25</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
